--- a/TestData/AmortTemplateBRAVO.xlsx
+++ b/TestData/AmortTemplateBRAVO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\amort test\AmortTemplateAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="55">
   <si>
     <t>Series</t>
   </si>
@@ -197,9 +197,6 @@
   <si>
     <t>ProjSchedFlag</t>
   </si>
-  <si>
-    <t>Y</t>
-  </si>
 </sst>
 </file>
 
@@ -220,7 +217,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,13 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,11 +243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,9 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F437"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9304,7 +9292,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
   </sheetViews>
@@ -9364,14 +9352,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>27</v>
+      <c r="A2" s="2">
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -9386,7 +9374,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="1">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -9403,115 +9391,39 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2">
-        <v>48</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="3">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>29</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="3">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/TestData/AmortTemplateBRAVO.xlsx
+++ b/TestData/AmortTemplateBRAVO.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="55">
   <si>
     <t>Series</t>
   </si>
@@ -217,18 +217,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -243,10 +237,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9292,9 +9285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B6" activeCellId="1" sqref="A2 B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9352,14 +9347,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>28</v>
+      <c r="A2" s="1">
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>26</v>
@@ -9374,7 +9369,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -9386,44 +9381,6 @@
         <v>8</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1">
-        <v>24</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
